--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il33</t>
   </si>
   <si>
     <t>Il1rl1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.91946</v>
+        <v>2.272936666666667</v>
       </c>
       <c r="H2">
-        <v>5.758380000000001</v>
+        <v>6.818810000000001</v>
       </c>
       <c r="I2">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="J2">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.59387</v>
       </c>
       <c r="O2">
-        <v>0.0243494466012499</v>
+        <v>0.02329675961362536</v>
       </c>
       <c r="P2">
-        <v>0.0243494466012499</v>
+        <v>0.02329675961362536</v>
       </c>
       <c r="Q2">
-        <v>0.3799699034</v>
+        <v>0.4499429660777778</v>
       </c>
       <c r="R2">
-        <v>3.4197291306</v>
+        <v>4.049486694700001</v>
       </c>
       <c r="S2">
-        <v>0.0004806436739615838</v>
+        <v>0.0005478366100068201</v>
       </c>
       <c r="T2">
-        <v>0.0004806436739615837</v>
+        <v>0.0005478366100068201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.91946</v>
+        <v>2.272936666666667</v>
       </c>
       <c r="H3">
-        <v>5.758380000000001</v>
+        <v>6.818810000000001</v>
       </c>
       <c r="I3">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="J3">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.950378</v>
       </c>
       <c r="O3">
-        <v>0.899994202415092</v>
+        <v>0.8610852201562809</v>
       </c>
       <c r="P3">
-        <v>0.8999942024150918</v>
+        <v>0.861085220156281</v>
       </c>
       <c r="Q3">
-        <v>14.04429085196</v>
+        <v>16.63060633446445</v>
       </c>
       <c r="R3">
-        <v>126.39861766764</v>
+        <v>149.67545701018</v>
       </c>
       <c r="S3">
-        <v>0.01776535323684564</v>
+        <v>0.02024891082541345</v>
       </c>
       <c r="T3">
-        <v>0.01776535323684564</v>
+        <v>0.02024891082541345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.91946</v>
+        <v>2.272936666666667</v>
       </c>
       <c r="H4">
-        <v>5.758380000000001</v>
+        <v>6.818810000000001</v>
       </c>
       <c r="I4">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="J4">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07378900000000001</v>
+        <v>0.509449</v>
       </c>
       <c r="N4">
-        <v>0.221367</v>
+        <v>1.528347</v>
       </c>
       <c r="O4">
-        <v>0.009076336480675717</v>
+        <v>0.05995509566943182</v>
       </c>
       <c r="P4">
-        <v>0.009076336480675714</v>
+        <v>0.05995509566943183</v>
       </c>
       <c r="Q4">
-        <v>0.14163503394</v>
+        <v>1.157945311896667</v>
       </c>
       <c r="R4">
-        <v>1.27471530546</v>
+        <v>10.42150780707</v>
       </c>
       <c r="S4">
-        <v>0.0001791615137552897</v>
+        <v>0.001409878322518554</v>
       </c>
       <c r="T4">
-        <v>0.0001791615137552897</v>
+        <v>0.001409878322518554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.91946</v>
+        <v>2.272936666666667</v>
       </c>
       <c r="H5">
-        <v>5.758380000000001</v>
+        <v>6.818810000000001</v>
       </c>
       <c r="I5">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="J5">
-        <v>0.01973940853082515</v>
+        <v>0.02351557122503904</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1644253333333333</v>
+        <v>0.1231903333333333</v>
       </c>
       <c r="N5">
-        <v>0.493276</v>
+        <v>0.369571</v>
       </c>
       <c r="O5">
-        <v>0.02022496105490789</v>
+        <v>0.01449779707203114</v>
       </c>
       <c r="P5">
-        <v>0.02022496105490788</v>
+        <v>0.01449779707203115</v>
       </c>
       <c r="Q5">
-        <v>0.31560785032</v>
+        <v>0.2800038256122223</v>
       </c>
       <c r="R5">
-        <v>2.84047065288</v>
+        <v>2.52003443051</v>
       </c>
       <c r="S5">
-        <v>0.0003992287687828551</v>
+        <v>0.0003409239796535108</v>
       </c>
       <c r="T5">
-        <v>0.0003992287687828551</v>
+        <v>0.0003409239796535109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.272936666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.818810000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.02351557122503904</v>
+      </c>
+      <c r="J6">
+        <v>0.02351557122503904</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>1.91946</v>
-      </c>
-      <c r="H6">
-        <v>5.758380000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.01973940853082515</v>
-      </c>
-      <c r="J6">
-        <v>0.01973940853082515</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.3768583333333333</v>
+        <v>0.3497873333333333</v>
       </c>
       <c r="N6">
-        <v>1.130575</v>
+        <v>1.049362</v>
       </c>
       <c r="O6">
-        <v>0.04635505344807467</v>
+        <v>0.04116512748863072</v>
       </c>
       <c r="P6">
-        <v>0.04635505344807466</v>
+        <v>0.04116512748863073</v>
       </c>
       <c r="Q6">
-        <v>0.7233644965</v>
+        <v>0.7950444554688888</v>
       </c>
       <c r="R6">
-        <v>6.5102804685</v>
+        <v>7.15540009922</v>
       </c>
       <c r="S6">
-        <v>0.0009150213374797809</v>
+        <v>0.0009680214874467083</v>
       </c>
       <c r="T6">
-        <v>0.0009150213374797808</v>
+        <v>0.0009680214874467084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>278.28968</v>
       </c>
       <c r="I7">
-        <v>0.9539616495320905</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="J7">
-        <v>0.9539616495320906</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>0.59387</v>
       </c>
       <c r="O7">
-        <v>0.0243494466012499</v>
+        <v>0.02329675961362536</v>
       </c>
       <c r="P7">
-        <v>0.0243494466012499</v>
+        <v>0.02329675961362536</v>
       </c>
       <c r="Q7">
         <v>18.36309914017778</v>
@@ -886,10 +886,10 @@
         <v>165.2678922616</v>
       </c>
       <c r="S7">
-        <v>0.02322843824492191</v>
+        <v>0.02235834036893281</v>
       </c>
       <c r="T7">
-        <v>0.02322843824492191</v>
+        <v>0.02235834036893281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>278.28968</v>
       </c>
       <c r="I8">
-        <v>0.9539616495320905</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="J8">
-        <v>0.9539616495320906</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.950378</v>
       </c>
       <c r="O8">
-        <v>0.899994202415092</v>
+        <v>0.8610852201562809</v>
       </c>
       <c r="P8">
-        <v>0.8999942024150918</v>
+        <v>0.861085220156281</v>
       </c>
       <c r="Q8">
         <v>678.7292966110044</v>
@@ -948,10 +948,10 @@
         <v>6108.56366949904</v>
       </c>
       <c r="S8">
-        <v>0.8585599539052193</v>
+        <v>0.8263997550823153</v>
       </c>
       <c r="T8">
-        <v>0.8585599539052192</v>
+        <v>0.8263997550823154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>278.28968</v>
       </c>
       <c r="I9">
-        <v>0.9539616495320905</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="J9">
-        <v>0.9539616495320906</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07378900000000001</v>
+        <v>0.509449</v>
       </c>
       <c r="N9">
-        <v>0.221367</v>
+        <v>1.528347</v>
       </c>
       <c r="O9">
-        <v>0.009076336480675717</v>
+        <v>0.05995509566943182</v>
       </c>
       <c r="P9">
-        <v>0.009076336480675714</v>
+        <v>0.05995509566943183</v>
       </c>
       <c r="Q9">
-        <v>6.844905732506667</v>
+        <v>47.25813306210667</v>
       </c>
       <c r="R9">
-        <v>61.60415159255999</v>
+        <v>425.32319755896</v>
       </c>
       <c r="S9">
-        <v>0.008658476920813696</v>
+        <v>0.05754003810234117</v>
       </c>
       <c r="T9">
-        <v>0.008658476920813694</v>
+        <v>0.05754003810234119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>278.28968</v>
       </c>
       <c r="I10">
-        <v>0.9539616495320905</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="J10">
-        <v>0.9539616495320906</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1644253333333333</v>
+        <v>0.1231903333333333</v>
       </c>
       <c r="N10">
-        <v>0.493276</v>
+        <v>0.369571</v>
       </c>
       <c r="O10">
-        <v>0.02022496105490789</v>
+        <v>0.01449779707203114</v>
       </c>
       <c r="P10">
-        <v>0.02022496105490788</v>
+        <v>0.01449779707203115</v>
       </c>
       <c r="Q10">
-        <v>15.25262446574222</v>
+        <v>11.42753281414222</v>
       </c>
       <c r="R10">
-        <v>137.27362019168</v>
+        <v>102.84779532728</v>
       </c>
       <c r="S10">
-        <v>0.01929383720966222</v>
+        <v>0.01391380977063476</v>
       </c>
       <c r="T10">
-        <v>0.01929383720966222</v>
+        <v>0.01391380977063477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>278.28968</v>
       </c>
       <c r="I11">
-        <v>0.9539616495320905</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="J11">
-        <v>0.9539616495320906</v>
+        <v>0.9597188939467916</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3768583333333333</v>
+        <v>0.3497873333333333</v>
       </c>
       <c r="N11">
-        <v>1.130575</v>
+        <v>1.049362</v>
       </c>
       <c r="O11">
-        <v>0.04635505344807467</v>
+        <v>0.04116512748863072</v>
       </c>
       <c r="P11">
-        <v>0.04635505344807466</v>
+        <v>0.04116512748863073</v>
       </c>
       <c r="Q11">
-        <v>34.95859499622222</v>
+        <v>32.44740168712888</v>
       </c>
       <c r="R11">
-        <v>314.6273549659999</v>
+        <v>292.0266151841599</v>
       </c>
       <c r="S11">
-        <v>0.04422094325147354</v>
+        <v>0.03950695062256734</v>
       </c>
       <c r="T11">
-        <v>0.04422094325147353</v>
+        <v>0.03950695062256735</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.557309</v>
+        <v>0.5347413333333334</v>
       </c>
       <c r="H12">
-        <v>7.671927</v>
+        <v>1.604224</v>
       </c>
       <c r="I12">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="J12">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1184,22 +1184,22 @@
         <v>0.59387</v>
       </c>
       <c r="O12">
-        <v>0.0243494466012499</v>
+        <v>0.02329675961362536</v>
       </c>
       <c r="P12">
-        <v>0.0243494466012499</v>
+        <v>0.02329675961362536</v>
       </c>
       <c r="Q12">
-        <v>0.5062363652766667</v>
+        <v>0.1058556118755556</v>
       </c>
       <c r="R12">
-        <v>4.55612728749</v>
+        <v>0.9527005068800001</v>
       </c>
       <c r="S12">
-        <v>0.000640364682366407</v>
+        <v>0.0001288865121409133</v>
       </c>
       <c r="T12">
-        <v>0.0006403646823664069</v>
+        <v>0.0001288865121409133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.557309</v>
+        <v>0.5347413333333334</v>
       </c>
       <c r="H13">
-        <v>7.671927</v>
+        <v>1.604224</v>
       </c>
       <c r="I13">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="J13">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.950378</v>
       </c>
       <c r="O13">
-        <v>0.899994202415092</v>
+        <v>0.8610852201562809</v>
       </c>
       <c r="P13">
-        <v>0.8999942024150918</v>
+        <v>0.861085220156281</v>
       </c>
       <c r="Q13">
-        <v>18.71129973760067</v>
+        <v>3.912591466296889</v>
       </c>
       <c r="R13">
-        <v>168.401697638406</v>
+        <v>35.213323196672</v>
       </c>
       <c r="S13">
-        <v>0.02366889527302704</v>
+        <v>0.004763850102875437</v>
       </c>
       <c r="T13">
-        <v>0.02366889527302704</v>
+        <v>0.004763850102875438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.557309</v>
+        <v>0.5347413333333334</v>
       </c>
       <c r="H14">
-        <v>7.671927</v>
+        <v>1.604224</v>
       </c>
       <c r="I14">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="J14">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.07378900000000001</v>
+        <v>0.509449</v>
       </c>
       <c r="N14">
-        <v>0.221367</v>
+        <v>1.528347</v>
       </c>
       <c r="O14">
-        <v>0.009076336480675717</v>
+        <v>0.05995509566943182</v>
       </c>
       <c r="P14">
-        <v>0.009076336480675714</v>
+        <v>0.05995509566943183</v>
       </c>
       <c r="Q14">
-        <v>0.188701273801</v>
+        <v>0.2724234375253334</v>
       </c>
       <c r="R14">
-        <v>1.698311464209</v>
+        <v>2.451810937728</v>
       </c>
       <c r="S14">
-        <v>0.0002386980461067312</v>
+        <v>0.0003316943340647421</v>
       </c>
       <c r="T14">
-        <v>0.0002386980461067311</v>
+        <v>0.0003316943340647422</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.557309</v>
+        <v>0.5347413333333334</v>
       </c>
       <c r="H15">
-        <v>7.671927</v>
+        <v>1.604224</v>
       </c>
       <c r="I15">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="J15">
-        <v>0.02629894193708435</v>
+        <v>0.005532379364275736</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1644253333333333</v>
+        <v>0.1231903333333333</v>
       </c>
       <c r="N15">
-        <v>0.493276</v>
+        <v>0.369571</v>
       </c>
       <c r="O15">
-        <v>0.02022496105490789</v>
+        <v>0.01449779707203114</v>
       </c>
       <c r="P15">
-        <v>0.02022496105490788</v>
+        <v>0.01449779707203115</v>
       </c>
       <c r="Q15">
-        <v>0.4204863847613334</v>
+        <v>0.06587496310044445</v>
       </c>
       <c r="R15">
-        <v>3.784377462852</v>
+        <v>0.592874667904</v>
       </c>
       <c r="S15">
-        <v>0.0005318950764628147</v>
+        <v>8.020731334876229E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005318950764628147</v>
+        <v>8.02073133487623E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5347413333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.604224</v>
+      </c>
+      <c r="I16">
+        <v>0.005532379364275736</v>
+      </c>
+      <c r="J16">
+        <v>0.005532379364275736</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3497873333333333</v>
+      </c>
+      <c r="N16">
+        <v>1.049362</v>
+      </c>
+      <c r="O16">
+        <v>0.04116512748863072</v>
+      </c>
+      <c r="P16">
+        <v>0.04116512748863073</v>
+      </c>
+      <c r="Q16">
+        <v>0.1870457450097778</v>
+      </c>
+      <c r="R16">
+        <v>1.683411705088</v>
+      </c>
+      <c r="S16">
+        <v>0.0002277411018458804</v>
+      </c>
+      <c r="T16">
+        <v>0.0002277411018458805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9862643333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.958793</v>
+      </c>
+      <c r="I17">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="J17">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1979566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.59387</v>
+      </c>
+      <c r="O17">
+        <v>0.02329675961362536</v>
+      </c>
+      <c r="P17">
+        <v>0.02329675961362536</v>
+      </c>
+      <c r="Q17">
+        <v>0.1952375998788889</v>
+      </c>
+      <c r="R17">
+        <v>1.75713839891</v>
+      </c>
+      <c r="S17">
+        <v>0.0002377152504369397</v>
+      </c>
+      <c r="T17">
+        <v>0.0002377152504369398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9862643333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.958793</v>
+      </c>
+      <c r="I18">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="J18">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.316792666666667</v>
+      </c>
+      <c r="N18">
+        <v>21.950378</v>
+      </c>
+      <c r="O18">
+        <v>0.8610852201562809</v>
+      </c>
+      <c r="P18">
+        <v>0.861085220156281</v>
+      </c>
+      <c r="Q18">
+        <v>7.216291641528223</v>
+      </c>
+      <c r="R18">
+        <v>64.946624773754</v>
+      </c>
+      <c r="S18">
+        <v>0.008786333041668197</v>
+      </c>
+      <c r="T18">
+        <v>0.008786333041668199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9862643333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.958793</v>
+      </c>
+      <c r="I19">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="J19">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.509449</v>
+      </c>
+      <c r="N19">
+        <v>1.528347</v>
+      </c>
+      <c r="O19">
+        <v>0.05995509566943182</v>
+      </c>
+      <c r="P19">
+        <v>0.05995509566943183</v>
+      </c>
+      <c r="Q19">
+        <v>0.5024513783523333</v>
+      </c>
+      <c r="R19">
+        <v>4.522062405171001</v>
+      </c>
+      <c r="S19">
+        <v>0.0006117692253515846</v>
+      </c>
+      <c r="T19">
+        <v>0.0006117692253515847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9862643333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.958793</v>
+      </c>
+      <c r="I20">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="J20">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1231903333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.369571</v>
+      </c>
+      <c r="O20">
+        <v>0.01449779707203114</v>
+      </c>
+      <c r="P20">
+        <v>0.01449779707203115</v>
+      </c>
+      <c r="Q20">
+        <v>0.1214982319781111</v>
+      </c>
+      <c r="R20">
+        <v>1.093484087803</v>
+      </c>
+      <c r="S20">
+        <v>0.0001479324815519057</v>
+      </c>
+      <c r="T20">
+        <v>0.0001479324815519057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.557309</v>
-      </c>
-      <c r="H16">
-        <v>7.671927</v>
-      </c>
-      <c r="I16">
-        <v>0.02629894193708435</v>
-      </c>
-      <c r="J16">
-        <v>0.02629894193708435</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3768583333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.130575</v>
-      </c>
-      <c r="O16">
-        <v>0.04635505344807467</v>
-      </c>
-      <c r="P16">
-        <v>0.04635505344807466</v>
-      </c>
-      <c r="Q16">
-        <v>0.9637432075583332</v>
-      </c>
-      <c r="R16">
-        <v>8.673688868025</v>
-      </c>
-      <c r="S16">
-        <v>0.001219088859121358</v>
-      </c>
-      <c r="T16">
-        <v>0.001219088859121357</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9862643333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.958793</v>
+      </c>
+      <c r="I21">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="J21">
+        <v>0.01020379032875926</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.3497873333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.049362</v>
+      </c>
+      <c r="O21">
+        <v>0.04116512748863072</v>
+      </c>
+      <c r="P21">
+        <v>0.04116512748863073</v>
+      </c>
+      <c r="Q21">
+        <v>0.3449827711184444</v>
+      </c>
+      <c r="R21">
+        <v>3.104844940066</v>
+      </c>
+      <c r="S21">
+        <v>0.0004200403297506321</v>
+      </c>
+      <c r="T21">
+        <v>0.0004200403297506322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.099495</v>
+      </c>
+      <c r="H22">
+        <v>0.298485</v>
+      </c>
+      <c r="I22">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="J22">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1979566666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.59387</v>
+      </c>
+      <c r="O22">
+        <v>0.02329675961362536</v>
+      </c>
+      <c r="P22">
+        <v>0.02329675961362536</v>
+      </c>
+      <c r="Q22">
+        <v>0.01969569855</v>
+      </c>
+      <c r="R22">
+        <v>0.17726128695</v>
+      </c>
+      <c r="S22">
+        <v>2.398087210787303E-05</v>
+      </c>
+      <c r="T22">
+        <v>2.398087210787303E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.099495</v>
+      </c>
+      <c r="H23">
+        <v>0.298485</v>
+      </c>
+      <c r="I23">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="J23">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.316792666666667</v>
+      </c>
+      <c r="N23">
+        <v>21.950378</v>
+      </c>
+      <c r="O23">
+        <v>0.8610852201562809</v>
+      </c>
+      <c r="P23">
+        <v>0.861085220156281</v>
+      </c>
+      <c r="Q23">
+        <v>0.72798428637</v>
+      </c>
+      <c r="R23">
+        <v>6.55185857733</v>
+      </c>
+      <c r="S23">
+        <v>0.0008863711040084021</v>
+      </c>
+      <c r="T23">
+        <v>0.0008863711040084021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.099495</v>
+      </c>
+      <c r="H24">
+        <v>0.298485</v>
+      </c>
+      <c r="I24">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="J24">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.509449</v>
+      </c>
+      <c r="N24">
+        <v>1.528347</v>
+      </c>
+      <c r="O24">
+        <v>0.05995509566943182</v>
+      </c>
+      <c r="P24">
+        <v>0.05995509566943183</v>
+      </c>
+      <c r="Q24">
+        <v>0.05068762825500001</v>
+      </c>
+      <c r="R24">
+        <v>0.4561886542950001</v>
+      </c>
+      <c r="S24">
+        <v>6.171568515576039E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.171568515576039E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.099495</v>
+      </c>
+      <c r="H25">
+        <v>0.298485</v>
+      </c>
+      <c r="I25">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="J25">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1231903333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.369571</v>
+      </c>
+      <c r="O25">
+        <v>0.01449779707203114</v>
+      </c>
+      <c r="P25">
+        <v>0.01449779707203115</v>
+      </c>
+      <c r="Q25">
+        <v>0.012256822215</v>
+      </c>
+      <c r="R25">
+        <v>0.110311399935</v>
+      </c>
+      <c r="S25">
+        <v>1.492352684220241E-05</v>
+      </c>
+      <c r="T25">
+        <v>1.49235268422024E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.099495</v>
+      </c>
+      <c r="H26">
+        <v>0.298485</v>
+      </c>
+      <c r="I26">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="J26">
+        <v>0.001029365135134397</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.3497873333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.049362</v>
+      </c>
+      <c r="O26">
+        <v>0.04116512748863072</v>
+      </c>
+      <c r="P26">
+        <v>0.04116512748863073</v>
+      </c>
+      <c r="Q26">
+        <v>0.03480209072999999</v>
+      </c>
+      <c r="R26">
+        <v>0.3132188165699999</v>
+      </c>
+      <c r="S26">
+        <v>4.237394702015905E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.237394702015904E-05</v>
       </c>
     </row>
   </sheetData>
